--- a/CashFlow/CTAS_cashflow.xlsx
+++ b/CashFlow/CTAS_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1964000000.0</v>
+        <v>-180671000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1784000000.0</v>
+        <v>-186320000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1238324000.0</v>
+        <v>-150991000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>748598000.0</v>
+        <v>-74773000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>350275000.0</v>
+        <v>-7103000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-20214000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-6529000.0</v>
+        <v>996000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>16802000.0</v>
+        <v>1001000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>30523000.0</v>
+        <v>762591000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-72635000.0</v>
+        <v>426791000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-14510000.0</v>
+        <v>242274000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>35313000.0</v>
